--- a/outputs/2025-05-20/framing_coordination_2025-05-20.xlsx
+++ b/outputs/2025-05-20/framing_coordination_2025-05-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,5966 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4/29/2022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>We are advancing hydrogen, biofuels and other low carbon solutions consistent with our intention to lead in the energy transition, leveraging our competitive advantages of scale, integration and technology.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Our new Corpus Christi Chemical Complex is up and running ahead of schedule and generated positive earnings and cash flow in its first quarter of operations. We have strengthened the balance sheet and are creating value for shareholders through an attractive dividend and increased share repurchases.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Finally, we are evolving our organization from a holding company to an operating company to better serve our customers' evolving needs and grow long-term shareholder value. Before we take your questions, I want to acknowledge the very real impact the high prices are having on families all around the world. You may recall that we anticipated this in 2020 with industry investment levels well below those required to offset depletion.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7/30/2021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The broader conversation network this society is now having, governments are now having around the solution sets needed to address the transition, I think, opens the door to a much richer conversation about where ExxonMobil can play and contribute carbon capture and storage, hydrogen, biofuels, other areas potentially where that leverage our strength.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I think they all recognize that the opportunity for us to take a leadership role in this space and just leveraging the capabilities and advantages we currently have. And so, finding the opportunities that fit well with where we can add the most value is, I think, a very aligned objective amongst the Board, and of course you've heard me talk about that, I mentioned in my opening comments.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>So I think we're - the things are lining up very well within the company, and then I would say more externally in the broader environment. With respect to CapEx in the balance sheet, as you mentioned, I think, again, good alignment around the importance of rebuilding the strength of the balance sheet. Everyone recognizes this is a commodity market with some significant cycles and volatility, and making sure that we've got a balance sheet that we can lean on as we move through that volatile environment and manage the downs, as well as the ups, is a really important foundational piece of our strategy, and I think very good alignment on that.</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>alignment</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>hydrogen, carbon capture and storage</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7/13/2012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A robust review among peer leaders and CIO would have provided for a discussion and challenge on the business side, which is what Iâm accustomed to seeing across the management teams in this company and it didnât happen here.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The second bullet on the page is about insularity. Even within CIO, the discussion of the portfolios stayed in the chain of managers with direct responsibility to us.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>And this was again compounded by the failure to surface issues related to the synthetic credit portfolio in the February business review with corporate. And then finally, the CIO led review and analysis of the portfolio in advance of the April 13 earnings call was poorly managed, resulting in the view that potential losses were manageable, that the portfolio was balanced and would recover. So now before I â leaving each of these findings, Iâm just going to comment quickly on the remediation actions that relate to it, that weâll get to later and prove this one, those fixes are the people changes that have been made and all the relevant CIO roles and a complete revamping of the management processes in CIO.</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>opportunity, risk</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>ccus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1/28/2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021 was also the year when Chevron accelerated our efforts to advance a lower-carbon future by forming Chevron New Energies, an organization that aims to grow businesses in hydrogen, carbon capture and offsets, introducing a 2050 net-zero aspiration for upstream Scope 1 and 2 emissions and establishing a portfolio carbon intensity target that includes Scope 3 emissions and more than tripling our planned lower carbon investments.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>After the challenges of 2020, we began last year clear eyed about the economic realities we faced, and at the same time, optimistic about an eventual recovery. By the end of 2021, we had one of our most successful years ever, with return on capital employed approaching 10%, our highest since 2014; the successful integration of Noble Energy, while more than doubling initial synergy estimates; and record free cash flow, 25% greater than our previous high.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chevron is an even better company today than we were just a few years ago. We're showing it through our actions and our performance, which we expect to drive higher returns and lower carbon. And we intend to keep getting better.</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4/21/2021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>We continue to work with the administration on their important efforts around extensions of existing renewable credits, new credits for transmission and storage including hydrogen as well as a new clean energy standard for the electric sector.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>We continue to see increased stakeholder focused on environmental social and governance or ESG factors helping to drive accelerated demand for diversified clean energy solutions among new non-traditional customers particularly in the commercial and industrial sector as an attractive source of incremental growth for Energy Resources in the coming years. We have been encouraged by the Biden Administrations focus on clean energy and the emphasis they have placed on it in their budget and in the upcoming infrastructure package.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>We support a clean energy standard that accelerates the decarbonization of the electric grid and enables the decarbonization of the transportation and industrial sectors as well. We believe that no energy company in the world has been more committed, consistent and proactive in promoting smart investments in clean energy technology as we have been for over two decades. As a push for actions to address climate change and acceleration of progress towards decarbonization creates new and enhanced renewable incentives across our industry.</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>governance</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4/20/2021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>We anticipate around plus $300 million to plus $400 million of incremental commercial investment compared to the first-half and consequently expect our organic OI margin expansion to be lower in H2, but overall, to deliver a strong expansion of around plus 200 basis point for the year.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>New product launches, investments in distribution and the phasing of productivities will also play a role. We will also step up our commercial investment in the future growth of RRP through portfolio and geographic expansion, including product launches such as IQOS ILUMA.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Before discussing our results in more depth, I want to highlight a few of the positive regulatory developments in the quarter. Recognition of the harm reduction potential of smoke-free product continues to gain traction. Example, so far this year includes the reversal of a long-standing import ban on heated tobacco product in Uruguay and the integration of the harm reduction principle in Lithuania's tobacco control agenda.</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4/28/2010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>And so, as a whole, I think what we would see is that, atmospheric gases is a higher return on capital business than hydrogen, not to say that hydrogen is bad, it just doesn't have as much co product economics.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PJ Juvekar - Citigroup
+Correct. Jim Sawyer
+Now going back to the (inaudible), the internal rate of return, they should be about the same except for the fact that atmospheric gases has more opportunity for a co product economics and more opportunity for vertical integration between the on site to both in the packaged business.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Operator
+And your next question comes from the line of David Begleiter with Deutsche Bank. Please proceed. David Begleiter - Deutsche Bank
+Jim could you comment on pricing in large projects in Asia?</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7/30/2020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>But more importantly, over the next decade, the cost of clean hydrogen at the point of use needs to drop at least 50% to 60% from where it is today, to roughly $4 per kilogram.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>There are challenges. First of all, you have to determine how these funding mechanisms will actually work.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>To reach that target, renewable power costs need to come down along with the cost of the electrolysis itself. This can be achieved by scaling up capacity, improving efficiencies and developing greater standardization around the supporting infrastructure. This will not happen overnight, but it is certainly feasible within the next 10-years, and something we can directly impact.</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>standardization</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>clean hydrogen, electrolysis, hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SPGI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1/13/2021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Growth within our gas, power and renewables businesses were driven by customer expansion into areas such as wind, battery, solar, and hydrogen services.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>In 2020, our upstream business was impacted by the industry undergoing severe CapEx reductions, leading to cost pressure within our customer base and bankruptcies, particularly in North America. Our downstream organic revenue growth proved resilient, when normalizing for our events.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>This was somewhat offset by lower non-recurring revenue within consulting. We also completed the integration of the agribusiness and acquired truView, a small upstream analytics company. And in 2021, we expect organic revenue results within resources to improve compared to 2020 and to be down year-over-year in the low single digits.</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5/12/2020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>So far, our teams have completed three nuclear outages and more than 30 fossil hydrogeneration outages, all while maintaining focus on safety and delivering on time and on budget.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>For team mates in critical roles who could not work remotely we deployed the best available personal protection equipment and create disinfecting between shifts initiated split operations, between primary and alternate locations to limit exposure, plus additional restrictions on those accessing our facilities and implemented social distancing policies. These new safety protocols were particularly important during spring storm restoration and generation outages.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>And in mid April, our transmission and distribution teams quickly responded to more than 900,000 outages across the Midwest and the Carolinas after severe thunderstorms and tornadoes. But Duke Energyâs response is on well beyond supporting our internal team. We were one of the first utilities in the country to suspend service disconnections for nonpayment and waive late payment and other fees for our customers.</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>risk, hedged</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10/30/2013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Remember we had the whole post Fukushima things and we are going to do hydrogen venting and a whole lot of other issues.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>I think itâs seems that its still something thatâs up in the air and there seems there might even be some internal disagreement, but do you have any feel for what if any â whether itâs a small item or not what if any real changes might be brought about by any such I guess coordination of SAMG. Thomas A. Fanning
+Hey, Mark you know what I would rather do here, I would rather gets you on a phone with some of our nuclear guys and talk about that, just talking about that in isolation really doesnât tell the whole story.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I can just tell you looking at the budgets of our nuclear business they do grow, but its nothing thatâs going to way down our ability to deliver financial results if you want a lot of detail I can put you with the right people. Mark Barnett â Morningstar Research
+Thanks and Iâll do that. Thanks.</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>coordination</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>risk, hedged</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8/9/2021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>As we begin the process of converting our global fleet of 2,000 distribution vehicles to hydrogen fuel cell vehicles.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>And we are pleased to announce a project with Cummins, to accelerate the integration of hydrogen fuel sales trucks globally. Cummins will provide a Hydrogen fuel electric powertrain and integrated it into heavy-duty trucks for Air Products.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>We expect the first unit to be online in 2022, and the full conversion before 2030. Now, let me give you the highlights of our significant announcement today. 3.5 years ago, in 2018, we announced publicly that Air Products growth strategy guided by the global energy transition, and based on the 3 pillars of gasification, carbon capture, and hydrogen had the potential to create significant growth for our Company, and that we could foresee deploying or committing $15 billion of capital in the 5 years, from 2018 to end of 2022.</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>fuel cell, hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7/23/2020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>And that is why we made the strategic alignment with how they are top so, who is the leader in production of ammonia and methanol and all of that.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>In terms of the unit operation of methanol, obviously people are running methanol plants all over the world. But we did realize that we did not have that experience directly.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>And therefore, we are using their technology and their help in enabling us to that part of unit operations without any risk. Stephen Byrne
+Thank you. Seifi Ghasemi
+Thank you.</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>alignment, strategic alignment</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7/22/2022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Based on this, we expect our H2 revenue this year to grow at least high-teens compared to the same period last year.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Directionally, during the second half of the year, we expect a strong continuation of growth in the core led by production systems for the rest of the year with Digital &amp; Integration benefiting from typically seasonally strong year end sales. Also and as a result of the rotation of investment towards international basins, we anticipate our highest growth rate during the second half to occur internationally, setting up a very nice backdrop for 2023 by outlook.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Full year revenue growth will therefore be in the high-teens, consisting revenue of at least $27 billion for 2022. Furthermore, our adjusted EBITDA, in absolute dollar terms, will increase by at least 25% for the full year of 2022 when compared to 2021. Indeed, 2022 is stepping up to be an outstanding year for Schlumberger.</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5/2/2022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Maybe one last comment here, guidance for EPS and for cash flow at the midpoint does imply sort of a little bit of a disconnect and you are able to resolve that by accustom really the following two factors.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>We have also revised our full year 2022 CapEx guidance to be within the range of $250 million to $300 million and thatâs really to reflect a combination of a number of factors. And those include sort of the ongoing investment, especially around SaaS-based product development for both new and upgraded customer solutions, RMA integration activity, office enhancements related to our Workplace of the Future program and then really corporate IT asset purchases as we refresh our PC hardware and some of the associated peripherals.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Really free cash flow is expected to outpace the adjusted diluted EPS when you correct for the tax payments in 2021 associated with the potential U.S. corporate tax rate changes, which ultimately did not occur, as well as some of the changes associated with the non-U.S. tax settlement in the fourth quarter of last year. Toni Kaplan
+Very helpful. Thanks, Mark.</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>ccus</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2/24/2011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>We had a very different selling model than we're accustomed to.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Carl Bass
+So I'm very happy with Moldflow. I think we had not a typical integration issues.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I think we're long past that. I like two parts of it. One is the way it complements our manufacturing portfolio, generally.</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>ccus</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7/29/2022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>In July, we formed JET H2 Energy Austria, a 50-50 joint venture with H2 Energy Europe to develop up to 250 retail hydrogen refueling stations across Germany, Austria and Denmark by 2026.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Upon completion, Rodeo will have over 50,000 barrels per day of renewable fuels production capacity. In addition, the conversion is projected to reduce life cycle carbon emissions by approximately 65% or the equivalent of permanently removing 1.4 million cars from California roads.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Recently, we published our 2022 Sustainability Report, providing a comprehensive look at our actions to both prepare Phillips 66 to thrive in the energy future and deliver on our commitment to being one of the industry's best operators. The report includes a detailed analysis of the company's climate-related risks and opportunities as well as performance data on various environmental, social and governance matters. Before we review the financial results, we'd like to recognize our employees' commitment to operating excellence.</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>governance</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>hydrogen, h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1/31/2019</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ben Fowke
+Yeah, I mean, the advantage of joining Mountain West would be potentially a larger footprint, which is good for renewable integration.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Travis Miller
+No, just if â youâre saying that â you heard that correctly. The renewables for SPP in general, is that part of the idea there?</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Certainly, weâre seeing the benefits of that with MISO and other regions. But again, their cost and other trade offs, when we added up the pros and the cons, we thought it was not enough of a benefit for our customers to move forward with it. Again, these things need to be periodically revisited and that's what we'll do.</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>renewable integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5/27/2021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>I could not be more excited about the opportunities ahead of us, especially the H2 combo store formats and our Dollar Tree Plus initiative.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>We believe the Chesapeake Media Group will enhance the opportunity to further drive loyalty and store traffic for Family Dollar while increasing partner awareness and product sales, ultimately driving market share gains for Family Dollar. These are just a few examples of our ability to act with more speed, clarity and focus on initiatives, since many of the integration priorities are now behind us.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>As an organization, we are certainly in a much better position to be aggressive and drive innovation. Looking forward, we believe our strategic store formats, our store growth plans, Dollar Tree Plus, and many key sales and traffic-driving initiatives along with our robust balance sheet will enable us to drive long term value for our stakeholders. Operator, we are now ready to take questions.</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7/30/2019</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>So, think about not only diesel but natural gas and hybrid and electrification and fuel cells and start to think about what that means.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>So anyway, we've had terrific conversations, but we are early days as to kind of what the market share opportunity. But here's how we're thinking about it together, is that the two companies are both spending a lot of investment -- putting a lot of investment into the various technologies that will occupy the commercial industrial equipment space.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Then they also have a truck business which has to identify -- also has to do autonomous safety, other integration of their vehicle. So, they're thinking about all the investments they need to make in that all the investments they need to make in power train and coming up and thinking that tips us over a company our size. So, but they need to be leading, there's no room for laggards, there is not going to be any second place is there, I mean, they're the strongest truck company in Japan, they have a terrific market share in Southeast Asia and they're the second largest and diesel engine maker with us.</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>fuel cell, fuel cells</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8/2/2022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>During the second quarter, Cummins announced collaborations with Daimler Truck, North America and Scania to deliver fuel cell electric powertrains for heavy-duty truck applications and with Komatsu on development of zero-emission haulage equipment, including hydrogen fuel cell solutions for large mining haul truck applications.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>On May 26, Meritor's shareholders voted in favor of the Cummins acquisition bid, further validating the potential of what Cummins and Meritor can achieve together. The companies are working together to complete the acquisition this week as we have received all regulatory approvals to close the transaction.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cummins, Chevron and Walmart also share plans to integrate Cummins X15N natural gas engines, powered by renewable natural gas into Walmart's heavy-duty truck fleet. These customer collaborations are significant steps in alignment with our Destination Zero strategy to evolve our company, our products and our customers' products to the technologies needed for a decarbonized world. This strategy, which represents a significant growth opportunity for Cummins, includes reducing carbon emissions now by making improvements in engine-based solutions that are broadly available today while rapidly advancing the 0 emissions technologies of the future.</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>alignment</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>fuel cell, hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11/2/2011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Scott Stephenson
+Were you asking specifically about 2011 accusation, the two and a half year space?</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>And we're spending money to make that happen, maybe less sell in the other businesses because I don't think we've been able to, for the most part, pull some cost out as we try to integrate them into what is the Verisk family. But there was a lot of upfront cost there.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Richard Cheever â SunTrust Robinson Humphrey
+Right, if there are some additional lifts. Scott Stephenson
+Yes. Of those HRP, the integration task is kind of simpler and has the shorter timeframe.</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>ccus</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10/24/2012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>One thing you've got to keep remembering about Performance Materials is the remedy of Performance Materials is embedded in Sadara and propane dehydrogenation in the U.S.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Andrew N. Liveris
+So I think the portfolio moves in Performance Materials are very deliberate and very surgical. You mentioned TDI as a clear example.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>So back-integrating into propane gave us propylene competitiveness for a lot of that mix, as well as, of course, the Sadara back-integration not just in PO but also in isocyanates. These businesses which are fundamentally U.S.-based have been competitively disadvantaged for some time in terms of export. And so the margin generation going from a steady state of currently 12%, 13% EBITDA margin, there's a 500 basis point improvement in those 2 investments alone in 2 years from now, 2, 2.5 years from now when they all start up.</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4/26/2012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>In fact, our propylene integration through propane dehydrogenation will bring margin expansion on the order of 100 to 200 basis points in our Coatings and Infrastructure segment and margin improvements in the range of 300 basis points for Performance Materials.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Here, you'll see the normalized margin targets for our operating segments. Note, in particular, Coatings and Infrastructure, and Performance Materials, where we plan to deliver margin growth as recovery in key markets, such as construction and transportation, takes hold and as we begin to realize the benefits of the integration investments I just discussed.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>I'd also point out that our Performance Plastics portfolio is currently delivering margins in the 20% range even in the midst of trough-like conditions in Europe and in Asia. So as you can see, the upside potential is indeed significant. Let's turn to Slide 18.</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4/20/2022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>HIF Global develops projects in multiple geographies to produce e-fuels by blending green hydrogen and CO2.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NET Power is an emission-free gas-to-power technology, where Baker Hughes will develop supercritical CO2 turboexpanders and other critical pumping and compression technology. We will also bring system integration and process knowledge experience to the partnership to help accelerate the market positioning and deployment of NET Powerâs emission-free and low-cost electric power.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Baker Hughes is investing alongside EIG, Porsche, AME and Gemstone and will provide compressors, turbines, pumps, valves and other technology on future projects. We are also discussing how our recently acquired Mosaic Materialsâ DAC technology could be incorporated into these future projects. Overall, we are excited about adding another carbon capture technology to our portfolio and the potential of these two partnerships to open new market opportunities in clean power and low carbon fuels for Baker Hughes.</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>green hydrogen, hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10/20/2021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>The way we think about industrial energy technology or IUG is essentially our TPS and DS businesses, both product companies have compelling portfolios that are beginning to see significant secular growth opportunities, particularly in the areas like hydrogen and CCUs.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>We strongly believe that these businesses can generate top-tier returns and free cash flow conversion. Our FSC is poised to benefit from cyclical growth in the coming years as we believe that we are in the early stages of a broad-based multiyear recovery that will be characterized by longer-term investments into the core OPEC plus countries.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>With core competencies across a number of offerings like power generation, compression, and condition monitoring, as well as the growing presence in flow control, industrial asset management, and digital. We have a strong foundation on which to build an even more comprehensive presence in the broad industrial energy technology markets. We believe that focusing on 2 major business areas with close alignment, will enhance our flexibility, improve execution, increase shareholder returns, and provide long-term optionality as the energy markets evolve.</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>alignment</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>ccus, hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ETR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4/28/2021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>So if you think about major hydrogen producers today through gas reformation if they're going to have to get carbon capture or renewables we want to be there to help them with that.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>The people who are utilizing that hydrogen are in our service territory and are our customers. So it's our intention to work with them in helping them meet their sustainability goals and their sustainability requirements depending on what again comes out of legislation and an administrative situation in Washington to help them with their sustainability objectives.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Stephen Byrd
+That's extremely helpful actually the last part of what you mentioned Leo kind of brings me to my second question which was just on, I guess especially hydrogen and carbon capture. I wonder if you could just talk a little bit more about sort of the role of Entergy in helping your customers? I guess, I'm thinking about frankly degree of technology risk you're willing to take, commodity risk, what sort of the range of possible roles that Entergy could have helping customers pursue those technologies.</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>risk, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ETR</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4/28/2021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Stephen Byrd
+That's extremely helpful actually the last part of what you mentioned Leo kind of brings me to my second question which was just on, I guess especially hydrogen and carbon capture.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>So it's our intention to work with them in helping them meet their sustainability goals and their sustainability requirements depending on what again comes out of legislation and an administrative situation in Washington to help them with their sustainability objectives. So if you think about major hydrogen producers today through gas reformation if they're going to have to get carbon capture or renewables we want to be there to help them with that.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I wonder if you could just talk a little bit more about sort of the role of Entergy in helping your customers? I guess, I'm thinking about frankly degree of technology risk you're willing to take, commodity risk, what sort of the range of possible roles that Entergy could have helping customers pursue those technologies. Would you mind just elaborate a little bit on that?</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>risk, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4/23/2021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Executing FE Forward, our transformational effort to capitalize on our potential, deliver long-term results and maximize near-term financial flexibility and continuing our investments in infrastructure growth opportunities from electrification, grid modernization and renewable integration to benefit our customers.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>It's my privilege to continue leading the company as we navigate our current challenges and position our business for long-term stability and success. As we work to move FirstEnergy Forward, my priorities are; the continued safety of our employees and customers, ensuring that ethics, accountability and integrity are deeply ingrained in our culture and supported by a strong corporate compliance program.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>During today's call, I'll provide an update on the Department of Justice Investigation, regulatory matters and our FE Forward initiative and other business developments. John Somerhalder will join us for an update on the Board and management's work towards instilling a culture of compliance built upon the highest standards of ethics and integrity. Then Jon Taylor will review our results and other financial topics before we open it up for your questions.</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>opportunity, risk, assertive</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>renewable integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5/8/2014</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>We're able to supply a great customer a new ammonia contract that fit their needs.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>And if you look at the 2 contracts that we signed, Mosaic was a win-win for both companies. Mosaic was able to acquire the assets that integrate into their system.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>For Orica, same principle, a very nice asset base located that's logistically advantaged for them and for us to sign that contract with a healthy margin for the plant and allow that to have a long-term viability was very attractive. If other opportunities came up where we were able to link up with companies that probably have a similar view culture and integration point which, let's say, work well with us and that type of offer is attractive, we would look at that. But again, it's something as we look at the whole component on the margin capability for the business.</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2/18/2011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>The extended application window and expectation for robust spring planning drove strong demand and caused supply to be the limiting factor in ammonia sales for the industry.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>We shipped 917,000 tons of ammonia to our customers in the fourth quarter. That's about 200,000 tons more than we shipped on a pro forma combined basis in either 2008 or 2009.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Inventories have not been completely rebuilt after the very strong spring application season by the time the fall window opened. As a result, all producers ran out of product late in the season. We benefited immensely from the integration of new supply points with our distribution network.</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2/18/2011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>This allowed us to move ammonia to the places where it was needed more effectively than we've ever been able to achieve before.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>As a result, all producers ran out of product late in the season. We benefited immensely from the integration of new supply points with our distribution network.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Essentially, we were able to move product to pockets of unmet demand until we completely exhausted the available supply from all our end market plants and terminals. Our average realized ammonia price in the fourth quarter was up 15% sequentially. Because we've had back-to-back strong application seasons, the Corn Belt premium over the U.S. Gulf price has remained well above the historical average, finishing the quarter at about $200 per ton.</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>11/5/2010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>This enables us to take the day-to-day actions that optimize our business for each major product, such as maximizing the value of our ammonia production, transportation and distribution system.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>We continue to be on track to deliver more than $135 million in annual savings, the top end of our predicted synergy range with a run rate of about $100 million implemented by year end. A good example of our improved coordination is the alignment of product managers and sales with their counterparts in logistics.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>We also have shifted more of our business to deliver pricing rather than FOB plant. This provides better visibility to regional market conditions. Our primary interest in pursuing Terra was expanding our North American production of nitrogen fertilizer.</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>coordination, alignment</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>ammonia, ammonia production</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>11/5/2010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>The Trinidad ammonia plant has become a great partner for our phosphate operations in Florida.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>With the integration of that business well in hand, we've been able to focus more attention on the other parts of Terra's portfolio, and familiarity is breeding enthusiasm. The GrowHow venture in the U.K. is performing well and is benefiting from extremely strong nitrate market.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>And the Diesel Exhaust Fluid business is proceeding the way that the Terra environmental technologies team had planned. We recently completed a thorough study of the DEF market and our position in it. This review validated the approach that the legacy Terra team had taken to this great opportunity and answered our questions that were prerequisites for making further commitments of capital to DEF.</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LH</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2/16/2017</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>The decision support tool is active and UnitedHealthcare has encouraged physicians to use it to become accustomed with it so that at the point where they do implement, the market will be ready.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>So, as you probably know, United has delayed the claim denial application part of BeaconLBS and a postcard went out to physicians, and I'll just comment briefly on that. So, first of all, as you may remember, we had a similar situation in Florida, and so this is sort of part of the normal course of how you change healthcare and change patient and provider behavior, there's a lot of learning, there's a lot of detail, and we're always trying to accommodate the balance between what needs to be done and what the marketplace needs to get what needs to be done, done.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>We have 98% of Texas physicians registered and 89% of the Texas labs within the network are registered, and we continue to enhance the platform with things like EMR integration and new tools and capabilities. I do want to comment editorially that the need for this type of tool is great, and as you probably have seen, it was probably reported that UnitedHealthcare sued a toxicology lab in Texas that was charging 3 to 10 times the amount of network providers and 2 to 3 times the amount that out-of-network providers charge, which meant that it was charging the customer between $1,400 and $6,500 for toxicology panels that were available from network providers for vastly lower amounts. This generates unnecessary cost for the system and it generates unnecessary out-of-pocket cost for patients who are paying co-payments and deductibles.</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>ccus</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>8/2/2022</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>But I think our overall strategy of how we buy raw materials, including ammonia -- or sorry, UAN and others for our business, because we buy those fairly carefully, I think we're going to continue making -- being well positioned in that market.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Obviously, we've had some positioning gains that have helped us. But -- and those come and go a little bit.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>In terms of mid-cycle, though, in our original prospectus to buy the business, we talked about a $350 million a year. And I would say, between the benefits of our integration and then the benefits of our changes since then, I would argue that we've probably added at least $400 million to that business. And we would be likely -- more likely in the $700 million to $800 million per year range mid-cycle.</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5/4/2021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>It sounds like you're not thinking about any big investments, but since conditions are improving, when that time comes, do you think it will first be in potash or first in phosphate or distribution acquisition or maybe further back integration into ammonia?</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>You may ask a question. John Roberts
+Thank you.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Where do you think big opportunity comes from? Joc O'Rourke
+Yes. Thanks.</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5/5/2022</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>In addition, we continue to be excited about our funnel for the hydrogen fuel business, which now stands in excess of $100 million.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>And again, the segment was down 130 basis points, excluding the impact of acquisitions, with an adjusted EBITDA margin of 29.9% ex M&amp;A. Overall, organic orders were up 6%, which is on top of 13% year-over-year organic growth in Q1 of 2021.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>The integration of Seepex, which we acquired in September of '21 continues to progress very well, with strong growth in new geographies and an acceleration of margin expansion into the low 20s from the mid-teens level inherited at the transaction closed just a couple of quarters ago. I also had a chance to listen the Seepex team in the U.S. And once again, our unique approach to ownership brand is playing a very crucial role in accelerating engagement and performance. I left very excited about the future potential of Seepex as part of Ingersoll Rand.</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2/23/2021</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Along with recent new products and wins in strategic end markets we have recently shared with you, like hydrogen, life sciences and oil for compressor products, our work with Google represents one way we are positioning ourselves for accelerated growth in 2021 and beyond.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Last week, you may have seen our announcement with Google Cloud for a five-year collaboration to advance connectivity across our portfolio. With real client data and machine learning both smarter and more innovative products, we are strengthening our capabilities to help our customers be successful for the long-term.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Unlocking our key potential means being focused on sustainable technologies in high-growth end markets. And it also means being focused on our commitment to environmental, social and governance principle as we see now on Slide 7. Yesterday, we joined a growing number of companies who are embracing their leadership responsibility to help confront the global threat of climate change.</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>governance</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>opportunity, risk</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>11/3/2020</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>The first example is focus on how we're leveraging a differentiated compression technology to penetrate the Hydrogen Refueling and Dispensing Niche market, which is a high growth and rapidly changing market.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>And as we continue to mail complementary cultures, as well as leverage our deep portfolio to serve niche end markets and accelerate growth. Well speaking about growth, let's turn to Slide 7 to showcase a few examples.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>A part of integration planning process, we did a lot of work to better understand these end markets, and the potential it could bring to our combined company. Haskel with over 70 years of industry experience is one of the world leaders in offering the most reliable high-pressure equipment and technology today. We're very excited about Haskel's comprehensive portfolio of specialized compression solutions.</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>8/5/2022</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Additionally, although we don't have any specific announcements to make today, we continue to make good progress on our two large green hydrogen projects in the US and Chile.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Earlier this week, Fast Company recognized AES in their top 10 rankings of best workplaces for Innovators and as the winner in the category of best workplaces for Early Career Innovator. We are very proud of receiving this recognition and our innovative teams and their many accomplishments.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>These projects include the integration of electrolyzers and renewable and have the potential to provide significant new sources of growth. I will provide additional updates in the coming months. In the meantime, we launched a 2.5-megawatt pilot project in Chile.</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>green hydrogen, hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>8/6/2018</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>This win demonstrates the technical expertise and differentiation that CH2M brings to Jacobs.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Our nuclear strength positions us well to capture incremental opportunities during the upcoming DOE nuclear procurement cycle. Within our Environmental business, we were awarded a contract to provide the Defense Threat Reduction Agency solutions for sustainable chemical, biological and other threat reduction capabilities.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>While CH2M integration growth synergies are a clear focus at this time, I'm pleased to also note that our previous acquisitions in the cybersecurity and analytics market such as Blue Canopy and Van Dyke are also driving revenue synergies. For example, across all of Jacobs, our commercial, private and other public clients are seeking ATEN's unique and deep expertise in areas such as at-scale network vulnerability assessments, cloud-based security operations management and organically developed software solutions to solve many complex cyber and AI initiatives. In summary, the ATEN business is executing well against its strategy and positioned to deliver a double-digit year-over-year profit increase in fiscal 2018 with continued strong growth into 2019.</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>8/6/2018</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>While CH2M integration growth synergies are a clear focus at this time, I'm pleased to also note that our previous acquisitions in the cybersecurity and analytics market such as Blue Canopy and Van Dyke are also driving revenue synergies.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Within our Environmental business, we were awarded a contract to provide the Defense Threat Reduction Agency solutions for sustainable chemical, biological and other threat reduction capabilities. This win demonstrates the technical expertise and differentiation that CH2M brings to Jacobs.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>For example, across all of Jacobs, our commercial, private and other public clients are seeking ATEN's unique and deep expertise in areas such as at-scale network vulnerability assessments, cloud-based security operations management and organically developed software solutions to solve many complex cyber and AI initiatives. In summary, the ATEN business is executing well against its strategy and positioned to deliver a double-digit year-over-year profit increase in fiscal 2018 with continued strong growth into 2019. Now on to Slide 8 to discuss our Buildings, Infrastructure and Advanced Facilities line of business, which posted another solid quarter of results.</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>8/6/2018</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>And can we just circle up into the CH2M accounting so how much of the brand adjustment is greater integration?</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Steven Demetriou
+Yes, we're still -- we're expecting continued backlog growth in ATEN as we move into '19. Jerry Revich
+Okay.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>And did you get any benefit in the quarter from the accounting change in terms of the way it flowed through the P&amp;L, Kevin? It's just a little counterintuitive considering how well the business is performing to see goodwill adjusted higher. Can you just flesh that out more in addition to what you mentioned in an earlier question?</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5/8/2018</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>From a CH2M cross-selling standpoint, we're starting to build a robust pipeline of global opportunities for industrial water solutions.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>And as the second wave of U.S. ethane cracker projects move forward with six U.S. crackers planned, we expect to benefit from derivative chemicals both domestically and across the globe. In our mining, minerals and technology business, mining studies and early engineering work are up significantly year-over-year as supply is tightening, mainly driven by copper and iron ore, a great leading indicator that we will continue to see growth in this market as well.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>We've already secured work on multiple opportunities with our hydrocarbon and mining clients including a large steam upgrade project with an energy major. We are now working on converting several FEED opportunities to EPC or EPCM solution. On slide 10, again, I'm very pleased to report the integration of CH2M is going well.</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5/8/2018</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Please note that this comparison adjusts for the legal matter in Q2, incremental CH2M acquisition-related depreciation and amortization, and the discrete benefit of the India Welfare Trust restructuring in the year-ago figure.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Gross margins were 19.7%, up 140 basis points year-over-year on a reported basis and 200 basis points sequentially. Regarding G&amp;A, we realized good growth leverage on our G&amp;A spend as pro forma G&amp;A as a percentage of revenue fell 110 basis points in the current quarter versus the year-ago pro forma figure.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>While GAAP operating profit margin was 3.7% due to CH2M-related acquisition and integration costs, our adjusted operating profit margin was 5.6%. GAAP EPS was $0.34, down year-over-year. CH2M acquisition-related restructuring charges to achieve synergies, professional fees, and other transaction-related expenses including change in control costs impacted EPS by $0.38.</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5/8/2018</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>While GAAP operating profit margin was 3.7% due to CH2M-related acquisition and integration costs, our adjusted operating profit margin was 5.6%.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Regarding G&amp;A, we realized good growth leverage on our G&amp;A spend as pro forma G&amp;A as a percentage of revenue fell 110 basis points in the current quarter versus the year-ago pro forma figure. Please note that this comparison adjusts for the legal matter in Q2, incremental CH2M acquisition-related depreciation and amortization, and the discrete benefit of the India Welfare Trust restructuring in the year-ago figure.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>GAAP EPS was $0.34, down year-over-year. CH2M acquisition-related restructuring charges to achieve synergies, professional fees, and other transaction-related expenses including change in control costs impacted EPS by $0.38. Additionally, a charge resulting from the revaluation of certain deferred tax assets and liabilities in connection with the U.S. tax reform impacted EPS by $0.28.</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2/7/2018</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>These are to further demonstrate our winning culture of safety, integrity and client centricity, to continue to strengthen our industry-leading quality and delivery, to progress our diversification into higher-growth, high-margin programs and projects; and of course, relentlessly drive a successful integration of CH2M, combining the best of both organizations to achieve our committed earnings growth and cash generation targets.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Welcome, everyone, to our Fiscal Year 2018 First Quarter Earnings Call. Before discussing our financial results, Iâd like to begin by reinforcing the priorities that we have set for the company.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>By achieving these objectives, we expect to further differentiate Jacobs competitively, retain and attract the industryâs foremost talent and generate superior value for our stakeholders and society. Now turning to our 2018 fiscal year first quarter results. We continued to benefit from strong end-market demand across both our Aerospace &amp; Technology and Buildings &amp; Infrastructure lines of business, and we experienced modestly improved fundamentals in our petroleum, chemicals and mining sectors.</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2/7/2018</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>The IMO working with joint leadership have focused on seamlessly combining legacy Jacobs and CH2M cultures and capturing synergies that we expect to create significant shareholder value.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Immediately after we announced the transformational acquisition of CH2M in August, we created an Integration Management Office, the IMO. By the time we completed the deal on December 15, the IMO was comprised of 125 employees from both organizations, working full-time alongside a leading management consultant firm to focus on all aspects of integration planning.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>We know the difference between success and failures of mergers and acquisitions typically lies in the ability to get employees of both organizations aligned and excited, not only to ensure they understand our new combined company strategy, but also to get them actively engaged in delivering it. To this end, over the last five months, our executive leaders have made a concerted effort to host town halls at locations across both businesses and around the world. Weâve taken time to personally communicate about our strategy and the stronger new value proposition weâre creating together.</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>11/21/2017</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>And after our August announcement of the CH2M acquisition, we immediately began implementing IMO, Integration Management Office investments and cost synergy actions during the fourth quarter in preparation for the expected closing of the acquisition.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Revenue grew year-over-year in the fourth quarter, driven by a combination of organic improvement and some benefit from recent acquisitions and currency. From a profitability standpoint, both our fiscal year 2017 gross margins and adjusted operating profit margin increased significantly, which after one-year is reaching levels that position us to achieve our three-year strategic target range.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>This gives us a running start as we approach the closing of this transformative and value-creating acquisition. So now turning to Slide 6, an update on the CH2M acquisition. With the pending merger of Jacobs and CH2M, we're combining two world-class organizations to create a global professional services leader that will deliver highly differentiated solutions for a more connected sustainable world.</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>11/21/2017</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>During the quarter, we also incurred $0.09 in CH2M acquisition professional fees, integration and related costs as well as $0.11 of costs associated with CH2M and 2015 restructuring-related activity.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>While SG&amp;A was up slightly in Q4, this was driven by business development costs, technology and strategic investments and some additional legal settlement costs. GAAP EPS was $0.78, a significant increase from $0.24 in the year-ago quarter, driven primarily by the closing of our successful 2015 restructuring initiative.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>When excluding these costs, our adjusted EPS was $0.98 on 120.1 million shares. Both GAAP and adjusted EPS included about $0.07 from a discrete tax benefit. For modeling purposes, I thought I'd spend a little bit of time and talk a little bit about bridging our adjusted EPS results of $0.98 to compare, on a like-for-like basis, with what I believe is the current consensus estimate of $0.82.</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>11/21/2017</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Moving to CH2M-related and expected synergies.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Our final recurring annual savings are $289 million, and the cost to achieve these savings was $444 million. Importantly, our cash restructuring costs that were included in our cost to achieve those benefits resulted in a cash payback of roughly one-year versus the cash expenses.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>We continue to estimate that $150 million of net synergies will be realized after completion of our integration efforts, with a cost to achieve these synergies of $225 million. You'll also note that consistent with our acceleration of activities in our Integration Management Office efforts, Jacobs also proactively took actions in anticipation of a successful completion of the CH2M closing. As a result, there were $13.5 million in fourth quarter restructuring costs to begin to drive synergies in our fiscal year 2018.</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>11/21/2017</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CH2M, a couple of years ago, launched a very similar transformation effort.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>One is the write-downs, but the other is holding onto the as-sold margin all the way through projects, and that's a, kind of a broader, bigger opportunity for us that is â we're still in the early stages. So we think that, kind of going back to my comment around operating profit margin improvement over the next several years, one of the reasons we're confident is, we're just going to stay relentlessly focused on upgrading our tools and our discipline and standardization across the company to improve project delivery program, delivery excellence and drive operating profit improvement, because of that, look at now, especially on the margin side.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>That's one of the things that excites us as we got into the due diligence and now into the integration process, that we both have had a very common path forward over the last couple of years and really refocusing the company on discipline, accountability, really looking at tools and project delivery excellence. And so I think that we're just going to pick up on that immediately upon close. We've actually been working it during this planning stage.</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>standardization, integration</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>11/21/2017</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>We've got tremendous leadership on both sides, led by Gary Mandel on Jacobs' side and Lisa Glatch and so on the CH2M side, both senior executives that are plucked out of the day-to-day business to invest in this integration process, which I think very few companies would do that.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>And a lot of it is lessons learned from not only what Jacobs and CH2M have done in the past, good and bad, but also the industry and also just broader M&amp;A. We've got a great external consultant helping us.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>And it's clearly paying dividends for us to what we believe will get us off to a very fast start on integration because of all the work that we've been doing since August. And the team is extensive, with members of both companies on a variety of subteams in this whole Integration Management Office. As far as the revenue synergies, which you talk about, we've defined the $150 million of cost synergies, but what really excites us is the growth opportunity.</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>8/8/2017</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>As it relates to CH2M's portfolio optimization, they've been successful in addressing legacy project issues that were a drag on historical performance by permanently exiting the higher risk power EPC and transportation design build businesses.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Significant recent profit improvement versus historical performance is primarily associated with two of their key initiatives. One, a portfolio optimization and secondly, a strategic transformation.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Enhanced risk mitigation and improved project governance are now in place and we have conservatively factored certain risk parameters into our valuation. As a result, we believe we're acquiring a very attractive business portfolio with a similar risk profile to Jacobs. With regard to their transformation, CH2M prioritized higher value core customers, and focused on a restructuring to reduce cost and enhance client-centric offerings.</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>governance</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>8/8/2017</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>With regard to their transformation, CH2M prioritized higher value core customers, and focused on a restructuring to reduce cost and enhance client-centric offerings.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Enhanced risk mitigation and improved project governance are now in place and we have conservatively factored certain risk parameters into our valuation. As a result, we believe we're acquiring a very attractive business portfolio with a similar risk profile to Jacobs.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>As their transformation is gaining traction, CH2M is demonstrating a significant increase in sales and profitability with year to date new gross profit awards up 25% and pro forma trailing 12 month adjusted EBITDA of $324 million, up 30% from prior 12 month period. And while their recent cost restructuring initiative has been successfully completed, there is still much more to do, and therefore we are acquiring CH2M at a very opportune time. We have assigned senior executives from both organizations to co-lead our integration management office, the IMO, on a full time basis.</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>governance, integration</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>8/8/2017</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>As their transformation is gaining traction, CH2M is demonstrating a significant increase in sales and profitability with year to date new gross profit awards up 25% and pro forma trailing 12 month adjusted EBITDA of $324 million, up 30% from prior 12 month period.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>As a result, we believe we're acquiring a very attractive business portfolio with a similar risk profile to Jacobs. With regard to their transformation, CH2M prioritized higher value core customers, and focused on a restructuring to reduce cost and enhance client-centric offerings.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>And while their recent cost restructuring initiative has been successfully completed, there is still much more to do, and therefore we are acquiring CH2M at a very opportune time. We have assigned senior executives from both organizations to co-lead our integration management office, the IMO, on a full time basis. We also engaged an external world-leading consulting firm with significant transformational integration experience and together with the IMO, are developing a roadmap to ensure accountability, transparency and a rigorous integration plan.</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>8/8/2017</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>The combined businesses of CH2M and Jacobs will create a premier global solutions provider with the capabilities to deliver and enhanced differentiated value proposition for our clients and strengthen our portfolio with high quality project expertise.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>And so as it relates to the CH2M acquisition, we're confident in our ability to successfully deliver the targeted cost synergies and drive further upside revenue synergies. Ultimately, we believe this transaction is a win-win for all stakeholders.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Moving to slide 7 and a few comments regarding our third quarter performance. We are now three quarters into the first fiscal year of our multi-year strategy and we continue to see evidence across the organization that we are delivering on our commitment to improve the company through a continued realignment of our revenue portfolio, reductions in unprofitable business and strong improvements to both gross margins and operating profit margins. Positively in the third quarter, we saw a 9% increase in sequential adjusted revenue from prior quarter driven by a 16% increase in field services work in our Industrial and Petroleum &amp; Chemicals businesses and a greater than 4% increase in overall professional services revenue.</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>alignment</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>7/29/2014</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>And in fact, in some cases, that's made the integration easier because SKM is already accustomed to the kinds of things that had to happen in acquisitions, and so the team expected some of those kinds of changes.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>And we have applied our learning from the 60-plus previous acquisitions to the integration of SKM. And we've had the benefit, because SKM did a lot of acquisitions, of being able to apply their experience in doing acquisitions as well.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>The differences in terms of the SKM acquisition are all, for practical purposes, are all relations to the timing. So catching the summer holiday and some of the challenges with the integration costs in the early process, the weak market in mining and minerals, all contributed to a slower start than we usually expect from an integration. But we think we have almost all of that behind us at this point.</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>opportunity, risk</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>ccus</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>8/1/2022</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A key to our successful partnership has been the close alignment of our purpose around creating solutions that have positive social impact, whether it's working together to improve healthcare for families through leading edge cell and gene therapy, addressing patient safety and emergency departments across the U.S., solving issues of connectivity and decarbonization for global rail market, delivering resilient solutions in the areas of deforestation and fire prevention in the UK, and the undergrounding of 10,000 miles of cable for PG&amp;E to mitigate forest fires in California, and on the clean energy front, collaborating on analyzing investments for private equity and green hydrogen.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Our partnership with PA has been one of the most successful in value creating investments and our Consulting and Advisory accelerator is a clear priority for future capital deployment. Turning to Slide 6.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Once again, looking ahead, we believe our partnership with TA is critical to delivering our new Jacobs strategy. Now I'll turn it over to Bob Pragada to discuss our line of businesses. Bob Pragada
+Thank you, Steve.</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>alignment</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>green hydrogen, hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>8/5/2019</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>During the quarter, we entered the final stages of the highly successful CH2M integration while closing the sale of our energy, chemicals and resources business and completing the acquisition of KeyW, a leading provider of space intelligence, cyber and data-driven technology solutions.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Our leadership position was recently recognized by once again achieving the number one global design firm ranking by PNR including Jacobs being the top-ranked firm in 19 critical sub-markets. Our fiscal year third quarter results demonstrate a continued focused execution through one of the most transformative periods in our company history.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>On a year-over-year basis, third quarter net revenue organically grew by 11%. Operating profit increased and adjusted earnings per share of $1.40 was up 13% and when excluding discrete tax benefits in the current and year ago quarter, EPS was up 8%. During the quarter, we also completed our $250 million accelerated share repurchase and as of August 2, weâve repurchased an additional $100 million of shares on the open market.</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>8/5/2019</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>And just to remind you, Andy, we didnât have a great start to the year as we kind of got a low off-track with the CH2M integration and we lost some traction on our DSO initiatives.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Kevin Berryman
+I think we are getting a lot closer obviously, because weâll be through some of the one-offs and cost associated with where we are going through, given the fact that weâve done a 3 plus billion dollar acquisition or divestiture and a close to $1 billion acquisition all in this third quarter. So, lot of moving pieces, clearly and I think that what will be the determinant of what you are asking is our success on working capital on specifically the DSO management.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>We came back and proved our DSOs in the second quarter, improved them again in the third quarter. But we still got to make more progress for us to be able to get to the place that you are suggesting potentially is available. 2020 might be a challenge if we get there.</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>opportunity, risk, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>8/5/2019</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>But we are very much making some really good progress in the second and third quarter, specifically oriented around, now coming together with the CH2M integration largely behind us in terms of system integration.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>But we still got to make more progress for us to be able to get to the place that you are suggesting potentially is available. 2020 might be a challenge if we get there.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>We feel like we are starting to make some really good progress there. Andrew Wittmann
+All right. Thatâs super helpful.</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>opportunity, risk, hedged</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5/7/2019</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>And my follow-up would be with ECR sale complete and given that you noted that CH2M integration is there complete.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>And so, I can't compare it to what is going on in other areas, but if I do look at Saudi, for example, it's a diversification and it's now spreading its funding, which in the past has been exclusively around the energy and chemical refining sector to areas around infrastructure is a good example. Unidentified Analyst
+Thank you that is helpful.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Can you talk about how you think about the face off potential incremental M&amp;A activity going forward? Should we expect some pause coming into the activities till you close out the KeyW or should we see more bolt-on acquisitions? Steven Demetriou
+Well, I think we still have a tremendous runway of opportunity to maximize the integration and synergies of CH2M especially with our BIAF business.</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5/7/2019</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Steven Demetriou
+Well, I think we still have a tremendous runway of opportunity to maximize the integration and synergies of CH2M especially with our BIAF business.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Can you talk about how you think about the face off potential incremental M&amp;A activity going forward? Should we expect some pause coming into the activities till you close out the KeyW or should we see more bolt-on acquisitions?</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I expect that from time-to-time we will have some bolt-on opportunities to take that combination of BIAFâs Jacobs and CH2M capability and bring some additional capabilities, talked about at Investor Day digital consulting is an area that we are interested in and there could be on a bolt on opportunities. ATN, I think you know, where the KeyW was a an initial step of our strategy to really become a tier one government services player especially focused around areas like federal it and you know the intelligence community and those priority areas for us. And so I would expect over the next several years from time-to-time, some bolt on opportunities.</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5/7/2019</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>I expect that from time-to-time we will have some bolt-on opportunities to take that combination of BIAFâs Jacobs and CH2M capability and bring some additional capabilities, talked about at Investor Day digital consulting is an area that we are interested in and there could be on a bolt on opportunities.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Should we expect some pause coming into the activities till you close out the KeyW or should we see more bolt-on acquisitions? Steven Demetriou
+Well, I think we still have a tremendous runway of opportunity to maximize the integration and synergies of CH2M especially with our BIAF business.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ATN, I think you know, where the KeyW was a an initial step of our strategy to really become a tier one government services player especially focused around areas like federal it and you know the intelligence community and those priority areas for us. And so I would expect over the next several years from time-to-time, some bolt on opportunities. But, we are very mindful and balanced around our capital deployment.</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>5/7/2019</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Remember that we have gone to on the CH2M integration we effectively at the beginning of the year went to 80% of the CH2M business.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>So we did see some of those challenges let's call it at the beginning of the quarter, but not so at the at the end of the quarter, because of the ability for the government to get back on track as it relates to the shutdown that we had there for a bid. So, look, I think there is a lot of moving pieces in terms of our system environment and implementations, which will create some volatility in those numbers in the short-term.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Roughly plus or minus went on to the Jacobs system environment, that we are still working through the adjustments and necessary improvements as it relates to that go live in anticipation for the next 20% going live, which is probably at the end of our third quarter, which is coming up here shortly. And, and so there are some kind of moving pieces right now. We are expecting that at the end of the day, all of this is going to translate into lower DSOs is going forward we have to, because we saw the tweak up in Q1 to the levels that we believe we need to get down quickly.</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2/6/2019</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>The adjustment is primarily related to Jacob's policy that backlogs the first two years of large multi-year contracts on a rolling basis while CH2M have included all contract years in their backlog.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Number two, consistent with our transition effective Q1 2019 for the bulk of CH2Mâs legacy business to Jacob's ERP suite of applications, we have aligned CH2M backlog reporting to Jacob's methodology. We have provided a recast backlog for all of 2018 periods to provide revised comparable data consistent with this change.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Number three. Additionally, we have made several changes regarding aligning CH2M to Jacob's cost allocation methodology, again, consistent with the transition to Jacob's ERP suite of applications effective Q1. The alignment results in an approximate $18 million increase in Q1 unallocated corporate costs with an offsetting benefit in the line of business operating profit.</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>alignment</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2/6/2019</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Additionally, we have made several changes regarding aligning CH2M to Jacob's cost allocation methodology, again, consistent with the transition to Jacob's ERP suite of applications effective Q1.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>The adjustment is primarily related to Jacob's policy that backlogs the first two years of large multi-year contracts on a rolling basis while CH2M have included all contract years in their backlog. Number three.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>The alignment results in an approximate $18 million increase in Q1 unallocated corporate costs with an offsetting benefit in the line of business operating profit. This change is neutral to total operating profit. In addition, the cost allocation change resulted in a $13 million increase to direct costs and a reduction to our G&amp;A all within the lines of businesses, which is also both neutral to both lines of our business and total operating profit number.</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>alignment</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2/6/2019</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Our G&amp;A as a percentage of revenue continued to decrease as we benefited from the CH2M cost synergies and our focus on maintaining an efficient cost structure.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>First quarter gross margins of 18.5%, while also strong, were impacted by an increase in pass-through revenues for the BIAF business versus Q4 and the continued ramp up of the large ATEN enterprise contracts that ramped up over the course of 2018. Excluding the impact of the increase in pass-throughs, gross margin and BIAF was down only slightly due to timing and mix of revenue.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Included in our reported G&amp;A, as noted earlier, is approximately $15 million of cost related to ECR that I referenced, which will either be eliminated or transitioned to WorleyParsons as part of the ECR sale. GAAP operating profit margin was 3.7%. The figure continues to be impacted by CH2M related acquisition and integration costs, transaction costs related to the sale of our ECR business as well as costs related to ECR that will be eliminated post-close.</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>11/20/2018</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Fourth quarter gross margins of 19% were up 130 basis points year-over-year, benefiting from the higher gross margin mix from CH2M.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Fourth quarter pro forma revenue grew 7% year-over-year. We have pro forma growth across all businesses with ATEN leading the way at 19%.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>We had another quarter of reduced G&amp;A spend as pro forma G&amp;A was down on an absolute basis year-over-year and flat sequentially versus Q3, again driven by our continued success in attaining our expected CH2M cost synergies. This benefit was partially offset by higher incentive accrual true-ups in the quarter. GAAP operating profit margin was 5.8% and was impacted by CH2M-related acquisition and integration costs.</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>11/20/2018</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>We had another quarter of reduced G&amp;A spend as pro forma G&amp;A was down on an absolute basis year-over-year and flat sequentially versus Q3, again driven by our continued success in attaining our expected CH2M cost synergies.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>We have pro forma growth across all businesses with ATEN leading the way at 19%. Fourth quarter gross margins of 19% were up 130 basis points year-over-year, benefiting from the higher gross margin mix from CH2M.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>This benefit was partially offset by higher incentive accrual true-ups in the quarter. GAAP operating profit margin was 5.8% and was impacted by CH2M-related acquisition and integration costs. Our adjusted operating profit margin was 6.8% for the quarter, up 130 basis points.</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>11/20/2018</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GAAP operating profit margin was 5.8% and was impacted by CH2M-related acquisition and integration costs.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>We had another quarter of reduced G&amp;A spend as pro forma G&amp;A was down on an absolute basis year-over-year and flat sequentially versus Q3, again driven by our continued success in attaining our expected CH2M cost synergies. This benefit was partially offset by higher incentive accrual true-ups in the quarter.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Our adjusted operating profit margin was 6.8% for the quarter, up 130 basis points. Operating profit as a percent of revenue was also up 40 basis points sequentially, again driven by the building momentum in cost synergies. GAAP EPS for the quarter was a negative $0.16, included in the GAAP figure is a $1.18 per share charge materially associated with the tax reform impact on our CH2M opening balance sheet and this charge comes as a result of our full year-end review procedures of CH2M's historical deferred tax asset and liability positions.</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>FMC</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2/9/2011</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>In our core markets, hydrogen peroxide and persulfate demand is expected to grow modestly by 1% to 2% in 2011, driven by general economic improvements.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2011 begins a new chapter for peroxygens with its globalization, following the combination of our European, North American and Asian JV operating units announced at our last conference call. The integration provides for the achievement of significant synergies in technology, marketing, supply chain and market access.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>In specialty markets, many of which we do not compete with like-and-kind technologies, we see robust growth, particularly in environmental, food safety, electronics and oil field, where our products offer customers unique quality, performance and/or technology with an incremental benefit of meeting sustainability goals of being green in nature for end users. Prices in 2011 are expected to be higher across peroxygens product lines, driven by more balanced supply-demand dynamics. We expect to benefit further from continued manufacturing cost reductions and realignment projects across our plant network.</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>alignment, integration</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4/23/2019</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>So there's option - there's configuration benefits with both of those units starting up about the same time, there's some recapture on the CO2 side and - hydrogen benefit at the side.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Scott Richardson
+Yes. So, Kevin, think of the timing similar to the startup timing with the expanded acetic acid.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>So there's all kinds of integration benefits associated with this and a market point capital of the minimus and would be funded through the venture itself. Kevin McCarthy
+And then I wanted to clarify a comment you made earlier regarding potential costs to separate your businesses at $50 million to $100 million. How did you reduce that cost and as a clarification is it operational cost or is it inclusive of potential tax effects as well?</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>EMN</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1/31/2020</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>For example, we recently welcomed two new strategic tenants to our site in Texas City, Gulf Coast Ammonia and Air Products.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>On slide 13, in addition to building an even more capable and efficient organization, there are additional actions we are taking to improve our performance. First, better leveraging our sites could yield $30 million to $60 million in recurring EBIT by the end of three years.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>At our site in St. Gabriel, Louisiana, we are building a new asset leveraging integration in alkylamines, to support Cortevaâs innovative growth of their Enlist system. And we have several additional opportunities in development. Second, we also see an opportunity to develop -- to step up our level of licensing, that could contribute another $25 million to $50 million in EBIT to our results in the next three years.</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>QRVO</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>10/28/2010</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Number three, inclusion of interstage matching as found in the AH212 and 323 and lastly with the highest levels of integration are needed a fully integrated 50 ohm input/output impedance solution such as the [TQM 87 9006].</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Two, integration of multiple functions within a single package to save board space. Good examples of this are the ML43 and 45.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I see a solid growth sector for base station revenues over the next several years to the roll out of MIMO and LTE and the rich product roadmap TriQuint has developed. The combined demand for base station, optical, point to point, and cable products supporting the future communications infrastructure is an exciting opportunity to TriQuint and one we are well positioned to address. Lastly, our defense and aerospace revenues were down slightly sequentially as expected but were 20% year-to-date as compared first nine months of 2009.</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/2025-05-20/framing_coordination_2025-05-20.xlsx
+++ b/outputs/2025-05-20/framing_coordination_2025-05-20.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>hydrogen, carbon capture and storage</t>
+          <t>carbon capture and storage, hydrogen</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>hydrogen, h2</t>
+          <t>h2, hydrogen</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>ammonia, ammonia production</t>
+          <t>ammonia production, ammonia</t>
         </is>
       </c>
     </row>

--- a/outputs/2025-05-20/framing_coordination_2025-05-20.xlsx
+++ b/outputs/2025-05-20/framing_coordination_2025-05-20.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -536,10 +540,8 @@
           <t>XOM</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4/29/2022</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44680</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -613,10 +615,8 @@
           <t>XOM</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7/30/2021</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44407</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>carbon capture and storage, hydrogen</t>
+          <t>hydrogen, carbon capture and storage</t>
         </is>
       </c>
     </row>
@@ -690,10 +690,8 @@
           <t>JPM</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7/13/2012</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>41103</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -767,10 +765,8 @@
           <t>CVX</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1/28/2022</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44589</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -844,10 +840,8 @@
           <t>NEE</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4/21/2021</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44307</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -921,10 +915,8 @@
           <t>PM</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4/20/2021</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>44306</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -998,10 +990,8 @@
           <t>LIN</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4/28/2010</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>40296</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1079,10 +1069,8 @@
           <t>LIN</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7/30/2020</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>44042</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1146,7 +1134,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>clean hydrogen, electrolysis, hydrogen</t>
+          <t>hydrogen, clean hydrogen, electrolysis</t>
         </is>
       </c>
     </row>
@@ -1156,10 +1144,8 @@
           <t>SPGI</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1/13/2021</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44209</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1233,10 +1219,8 @@
           <t>DUK</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5/12/2020</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>43963</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1310,10 +1294,8 @@
           <t>SO</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10/30/2013</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>41577</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1389,10 +1371,8 @@
           <t>APD</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>8/9/2021</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>44417</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1456,7 +1436,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>fuel cell, hydrogen</t>
+          <t>hydrogen, fuel cell</t>
         </is>
       </c>
     </row>
@@ -1466,10 +1446,8 @@
           <t>APD</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7/23/2020</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>44035</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1545,10 +1523,8 @@
           <t>SLB</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>7/22/2022</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>44764</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1622,10 +1598,8 @@
           <t>MCO</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5/2/2022</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1700,10 +1674,8 @@
           <t>ADSK</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2/24/2011</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>40598</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1778,10 +1750,8 @@
           <t>PSX</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>7/29/2022</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>44771</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1855,10 +1825,8 @@
           <t>XEL</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1/31/2019</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>43496</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1934,10 +1902,8 @@
           <t>DLTR</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>5/27/2021</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>44343</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2011,10 +1977,8 @@
           <t>CMI</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>7/30/2019</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>43676</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2088,10 +2052,8 @@
           <t>CMI</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>8/2/2022</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>44775</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2155,7 +2117,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>fuel cell, hydrogen</t>
+          <t>hydrogen, fuel cell</t>
         </is>
       </c>
     </row>
@@ -2165,10 +2127,8 @@
           <t>VRSK</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>11/2/2011</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>40849</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2245,10 +2205,8 @@
           <t>DD</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>10/24/2012</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>41206</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2323,10 +2281,8 @@
           <t>DD</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>4/26/2012</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>41025</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2400,10 +2356,8 @@
           <t>BKR</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>4/20/2022</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>44671</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2477,10 +2431,8 @@
           <t>BKR</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>10/20/2021</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>44489</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2544,7 +2496,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>ccus, hydrogen</t>
+          <t>hydrogen, ccus</t>
         </is>
       </c>
     </row>
@@ -2554,10 +2506,8 @@
           <t>ETR</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>4/28/2021</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>44314</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2632,10 +2582,8 @@
           <t>ETR</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>4/28/2021</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>44314</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2710,10 +2658,8 @@
           <t>FE</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>4/23/2021</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>44309</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2787,10 +2733,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>5/8/2014</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>41767</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2864,10 +2808,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2/18/2011</t>
-        </is>
+      <c r="B32" s="2" t="n">
+        <v>40592</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2941,10 +2883,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2/18/2011</t>
-        </is>
+      <c r="B33" s="2" t="n">
+        <v>40592</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3018,10 +2958,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>11/5/2010</t>
-        </is>
+      <c r="B34" s="2" t="n">
+        <v>40487</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3085,7 +3023,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>ammonia production, ammonia</t>
+          <t>ammonia, ammonia production</t>
         </is>
       </c>
     </row>
@@ -3095,10 +3033,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>11/5/2010</t>
-        </is>
+      <c r="B35" s="2" t="n">
+        <v>40487</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -3172,10 +3108,8 @@
           <t>LH</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2/16/2017</t>
-        </is>
+      <c r="B36" s="2" t="n">
+        <v>42782</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -3249,10 +3183,8 @@
           <t>MOS</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>8/2/2022</t>
-        </is>
+      <c r="B37" s="2" t="n">
+        <v>44775</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -3326,10 +3258,8 @@
           <t>MOS</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>5/4/2021</t>
-        </is>
+      <c r="B38" s="2" t="n">
+        <v>44320</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -3405,10 +3335,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>5/5/2022</t>
-        </is>
+      <c r="B39" s="2" t="n">
+        <v>44686</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3482,10 +3410,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2/23/2021</t>
-        </is>
+      <c r="B40" s="2" t="n">
+        <v>44250</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3559,10 +3485,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>11/3/2020</t>
-        </is>
+      <c r="B41" s="2" t="n">
+        <v>44138</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3636,10 +3560,8 @@
           <t>AES</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>8/5/2022</t>
-        </is>
+      <c r="B42" s="2" t="n">
+        <v>44778</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3713,10 +3635,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B43" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -3790,10 +3710,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B44" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3867,10 +3785,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B45" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3946,10 +3862,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B46" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -4023,10 +3937,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B47" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -4100,10 +4012,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B48" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -4177,10 +4087,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B49" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -4254,10 +4162,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B50" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -4331,10 +4237,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B51" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -4408,10 +4312,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B52" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -4485,10 +4387,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B53" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -4562,10 +4462,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B54" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -4639,10 +4537,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B55" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -4716,10 +4612,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>8/8/2017</t>
-        </is>
+      <c r="B56" s="2" t="n">
+        <v>42955</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -4793,10 +4687,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>8/8/2017</t>
-        </is>
+      <c r="B57" s="2" t="n">
+        <v>42955</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -4870,10 +4762,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>8/8/2017</t>
-        </is>
+      <c r="B58" s="2" t="n">
+        <v>42955</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -4947,10 +4837,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>8/8/2017</t>
-        </is>
+      <c r="B59" s="2" t="n">
+        <v>42955</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -5024,10 +4912,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>7/29/2014</t>
-        </is>
+      <c r="B60" s="2" t="n">
+        <v>41849</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -5101,10 +4987,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>8/1/2022</t>
-        </is>
+      <c r="B61" s="2" t="n">
+        <v>44774</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -5179,10 +5063,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>8/5/2019</t>
-        </is>
+      <c r="B62" s="2" t="n">
+        <v>43682</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -5256,10 +5138,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>8/5/2019</t>
-        </is>
+      <c r="B63" s="2" t="n">
+        <v>43682</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -5334,10 +5214,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>8/5/2019</t>
-        </is>
+      <c r="B64" s="2" t="n">
+        <v>43682</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -5412,10 +5290,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>5/7/2019</t>
-        </is>
+      <c r="B65" s="2" t="n">
+        <v>43592</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -5491,10 +5367,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>5/7/2019</t>
-        </is>
+      <c r="B66" s="2" t="n">
+        <v>43592</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -5569,10 +5443,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>5/7/2019</t>
-        </is>
+      <c r="B67" s="2" t="n">
+        <v>43592</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -5647,10 +5519,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>5/7/2019</t>
-        </is>
+      <c r="B68" s="2" t="n">
+        <v>43592</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -5724,10 +5594,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2/6/2019</t>
-        </is>
+      <c r="B69" s="2" t="n">
+        <v>43502</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -5801,10 +5669,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2/6/2019</t>
-        </is>
+      <c r="B70" s="2" t="n">
+        <v>43502</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -5878,10 +5744,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2/6/2019</t>
-        </is>
+      <c r="B71" s="2" t="n">
+        <v>43502</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -5955,10 +5819,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B72" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -6032,10 +5894,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B73" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -6109,10 +5969,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B74" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -6186,10 +6044,8 @@
           <t>FMC</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2/9/2011</t>
-        </is>
+      <c r="B75" s="2" t="n">
+        <v>40583</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -6263,10 +6119,8 @@
           <t>CE</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>4/23/2019</t>
-        </is>
+      <c r="B76" s="2" t="n">
+        <v>43578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -6342,10 +6196,8 @@
           <t>EMN</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>1/31/2020</t>
-        </is>
+      <c r="B77" s="2" t="n">
+        <v>43861</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -6419,10 +6271,8 @@
           <t>QRVO</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>10/28/2010</t>
-        </is>
+      <c r="B78" s="2" t="n">
+        <v>40479</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
